--- a/Data/Input/Salvamentos4.xlsx
+++ b/Data/Input/Salvamentos4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="38700" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="-120" yWindow="4830" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>FACT_ID</t>
   </si>
@@ -68,21 +68,105 @@
     <t>FACS_SERIE</t>
   </si>
   <si>
+    <t>TCM181127MYA</t>
+  </si>
+  <si>
     <t>00002</t>
   </si>
   <si>
     <t>Auto Online</t>
   </si>
   <si>
+    <t>TRANSTER CM, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>27/04/2020</t>
+  </si>
+  <si>
     <t>Elaborado</t>
   </si>
   <si>
+    <t>HFSALV-46231</t>
+  </si>
+  <si>
     <t>HFSALV</t>
   </si>
   <si>
+    <t>EUMM711108EW3</t>
+  </si>
+  <si>
+    <t>0000346572</t>
+  </si>
+  <si>
+    <t>EQUIHUA MORENO MARCELINA</t>
+  </si>
+  <si>
     <t>28/04/2020</t>
   </si>
   <si>
+    <t>HFSALV-46243</t>
+  </si>
+  <si>
+    <t>CDH141205943</t>
+  </si>
+  <si>
+    <t>0000001961</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA Y DISTRIBUIDORA HUGS, SA DE CV</t>
+  </si>
+  <si>
+    <t>HFSALV-46249</t>
+  </si>
+  <si>
+    <t>GDA070207DV7</t>
+  </si>
+  <si>
+    <t>0000000325</t>
+  </si>
+  <si>
+    <t>GRUPO DALIMO, S.A DE C.V.</t>
+  </si>
+  <si>
+    <t>HFSALV-46258</t>
+  </si>
+  <si>
+    <t>CAP0211116P8</t>
+  </si>
+  <si>
+    <t>0000004207</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA DE AUTO PARTES JR, SA DE CV</t>
+  </si>
+  <si>
+    <t>HFSALV-46263</t>
+  </si>
+  <si>
+    <t>HFSALV-46267</t>
+  </si>
+  <si>
+    <t>FUMC811229RN6</t>
+  </si>
+  <si>
+    <t>FUENTES MAGOS CESAR ALONSO</t>
+  </si>
+  <si>
+    <t>HFSALV-46270</t>
+  </si>
+  <si>
+    <t>FOGM8003113N0</t>
+  </si>
+  <si>
+    <t>0000005029</t>
+  </si>
+  <si>
+    <t>FLORES GARCIA MANUEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46272</t>
+  </si>
+  <si>
     <t>AUGH600111RP3</t>
   </si>
   <si>
@@ -98,70 +182,25 @@
     <t>HFSALV-46287</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>CACM7402039PA</t>
-  </si>
-  <si>
-    <t>CHAVEZ CHAGOYA MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>HFSALV-46364</t>
-  </si>
-  <si>
-    <t>HFSALV-46366</t>
-  </si>
-  <si>
-    <t>0000076656</t>
-  </si>
-  <si>
-    <t>HFSALV-46367</t>
-  </si>
-  <si>
-    <t>SARC671104H82</t>
-  </si>
-  <si>
-    <t>SANCHEZ REYES CARLOS</t>
-  </si>
-  <si>
-    <t>HFSALV-46373</t>
-  </si>
-  <si>
-    <t>AAOD850326N89</t>
-  </si>
-  <si>
-    <t>Otro Canal</t>
-  </si>
-  <si>
-    <t>0000123838</t>
-  </si>
-  <si>
-    <t>ALVAREZ OCHOA DAVID HUMBERTO</t>
-  </si>
-  <si>
-    <t>HFSALV-46375</t>
-  </si>
-  <si>
-    <t>HFSALV-46376</t>
-  </si>
-  <si>
-    <t>0000000431</t>
-  </si>
-  <si>
-    <t>HFSALV-46428</t>
+    <t>AASJ720101G14</t>
+  </si>
+  <si>
+    <t>0000351791</t>
+  </si>
+  <si>
+    <t>AMADOR SALAZAR JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46293</t>
   </si>
   <si>
     <t>COMENTARIOS</t>
   </si>
   <si>
+    <t>Procesado</t>
+  </si>
+  <si>
     <t>Los criterios de busqueda no generaron resultados</t>
-  </si>
-  <si>
-    <t>Subastadora Otro Canal</t>
-  </si>
-  <si>
-    <t>Procesado</t>
   </si>
 </sst>
 </file>
@@ -519,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,188 +616,188 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>46428</v>
+        <v>46231</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>20200000035506</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>20190000251796</v>
+      </c>
+      <c r="F2">
+        <v>1089000384</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>226699.99</v>
+        <v>68001</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>46287</v>
+        <v>46243</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20190000042709</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20190000282902</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3">
+        <v>161000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>44000.01</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>46373</v>
+        <v>46249</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>20190000006694</v>
-      </c>
-      <c r="F4">
-        <v>3640</v>
+        <v>20200000045605</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>51000</v>
+        <v>4500</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>46373</v>
+        <v>46258</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>20190000006694</v>
-      </c>
-      <c r="F5">
-        <v>3640</v>
+        <v>20190000301508</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>51000</v>
+        <v>118000</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>46375</v>
+        <v>46263</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>20190000001247</v>
+        <v>20190000272284</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -767,187 +806,251 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>25000</v>
+        <v>28900</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>46376</v>
+        <v>46267</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
-        <v>20190000000618</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>20200000047525</v>
+      </c>
+      <c r="F7">
+        <v>1200018911</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>30000</v>
+        <v>52000</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>46364</v>
+        <v>46270</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20190000286532</v>
+      </c>
+      <c r="F8">
+        <v>8100129070</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20190000054124</v>
-      </c>
-      <c r="F8">
-        <v>2002014615</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>109000</v>
+        <v>45225</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>46366</v>
+        <v>46272</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20200000029871</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20190000270030</v>
-      </c>
-      <c r="F9">
-        <v>1004013656</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>53000.01</v>
+        <v>7234</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>46367</v>
+        <v>46287</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20190000282902</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>44000.01</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>46293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
-        <v>20200000037241</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="J10">
-        <v>51700.01</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
-      </c>
+      <c r="E11" s="2">
+        <v>20180000290206</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>105000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
@@ -985,6 +1088,16 @@
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="F31" s="1"/>
@@ -1000,6 +1113,20 @@
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
@@ -1092,6 +1219,10 @@
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>

--- a/Data/Input/Salvamentos4.xlsx
+++ b/Data/Input/Salvamentos4.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Desktop\Nueva carpeta\Salvamentos\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\430005309\RESPALDO KARIME\Escritorio\SMART\RPAs\Descarga y envío de facturas de salvamentos a proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="4830" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="204">
   <si>
     <t>FACT_ID</t>
   </si>
@@ -194,19 +194,460 @@
     <t>HFSALV-46293</t>
   </si>
   <si>
-    <t>COMENTARIOS</t>
-  </si>
-  <si>
-    <t>Procesado</t>
-  </si>
-  <si>
-    <t>Los criterios de busqueda no generaron resultados</t>
+    <t>HFSALV-46294</t>
+  </si>
+  <si>
+    <t>0000317957</t>
+  </si>
+  <si>
+    <t>HFSALV-46296</t>
+  </si>
+  <si>
+    <t>SALM801216FX7</t>
+  </si>
+  <si>
+    <t>0000329218</t>
+  </si>
+  <si>
+    <t>SALAS LEDEZMA MIGUEL OSMAN</t>
+  </si>
+  <si>
+    <t>HFSALV-46301</t>
+  </si>
+  <si>
+    <t>RUHS770207HQ8</t>
+  </si>
+  <si>
+    <t>0000002385</t>
+  </si>
+  <si>
+    <t>RUIZ HERNANDEZ SALOMON</t>
+  </si>
+  <si>
+    <t>HFSALV-46305</t>
+  </si>
+  <si>
+    <t>ROCE7209159U5</t>
+  </si>
+  <si>
+    <t>0000035115</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CHAVIRA ERIKA LIZETT</t>
+  </si>
+  <si>
+    <t>HFSALV-46314</t>
+  </si>
+  <si>
+    <t>0000005892</t>
+  </si>
+  <si>
+    <t>HFSALV-46316</t>
+  </si>
+  <si>
+    <t>0000016765</t>
+  </si>
+  <si>
+    <t>HFSALV-46319</t>
+  </si>
+  <si>
+    <t>0000000231</t>
+  </si>
+  <si>
+    <t>HFSALV-46333</t>
+  </si>
+  <si>
+    <t>HFSALV-46340</t>
+  </si>
+  <si>
+    <t>0000144653</t>
+  </si>
+  <si>
+    <t>HFSALV-46348</t>
+  </si>
+  <si>
+    <t>SOME8607158Q7</t>
+  </si>
+  <si>
+    <t>0000069568</t>
+  </si>
+  <si>
+    <t>SOLIS MALDONADO EMANUEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46350</t>
+  </si>
+  <si>
+    <t>GARA930630H70</t>
+  </si>
+  <si>
+    <t>0000001517</t>
+  </si>
+  <si>
+    <t>GARCIA ROMERO ANA KAREN</t>
+  </si>
+  <si>
+    <t>HFSALV-46353</t>
+  </si>
+  <si>
+    <t>NORC880326F21</t>
+  </si>
+  <si>
+    <t>NOYA ROCHA CHRISTIAN REYNALDO</t>
+  </si>
+  <si>
+    <t>HFSALV-46355</t>
+  </si>
+  <si>
+    <t>JUGH591109KZ2</t>
+  </si>
+  <si>
+    <t>0000016215</t>
+  </si>
+  <si>
+    <t>JUAREZ GUERRERO HECTOR</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>HFSALV-46362</t>
+  </si>
+  <si>
+    <t>MOAJ790525RB1</t>
+  </si>
+  <si>
+    <t>MOLINA ALVIDREZ JOSE JOAQUIN</t>
+  </si>
+  <si>
+    <t>HFSALV-46363</t>
+  </si>
+  <si>
+    <t>CACM7402039PA</t>
+  </si>
+  <si>
+    <t>CHAVEZ CHAGOYA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46364</t>
+  </si>
+  <si>
+    <t>HFSALV-46366</t>
+  </si>
+  <si>
+    <t>0000076656</t>
+  </si>
+  <si>
+    <t>HFSALV-46367</t>
+  </si>
+  <si>
+    <t>ZUCD930722EQ1</t>
+  </si>
+  <si>
+    <t>0000000049</t>
+  </si>
+  <si>
+    <t>ZUÑIGA CARDONA DIANA ESTEFANY</t>
+  </si>
+  <si>
+    <t>HFSALV-46368</t>
+  </si>
+  <si>
+    <t>ZARJ760816L13</t>
+  </si>
+  <si>
+    <t>0000183531</t>
+  </si>
+  <si>
+    <t>ZAPATA ROSALES JOAQUIN</t>
+  </si>
+  <si>
+    <t>HFSALV-46369</t>
+  </si>
+  <si>
+    <t>0000139828</t>
+  </si>
+  <si>
+    <t>HFSALV-46372</t>
+  </si>
+  <si>
+    <t>SARC671104H82</t>
+  </si>
+  <si>
+    <t>SANCHEZ REYES CARLOS</t>
+  </si>
+  <si>
+    <t>HFSALV-46373</t>
+  </si>
+  <si>
+    <t>AAOD850326N89</t>
+  </si>
+  <si>
+    <t>Otro Canal</t>
+  </si>
+  <si>
+    <t>0000123838</t>
+  </si>
+  <si>
+    <t>ALVAREZ OCHOA DAVID HUMBERTO</t>
+  </si>
+  <si>
+    <t>HFSALV-46375</t>
+  </si>
+  <si>
+    <t>HFSALV-46376</t>
+  </si>
+  <si>
+    <t>HFSALV-46379</t>
+  </si>
+  <si>
+    <t>RAGF940304949</t>
+  </si>
+  <si>
+    <t>0000116607</t>
+  </si>
+  <si>
+    <t>RAMIREZ GONZALEZ FERNANDO</t>
+  </si>
+  <si>
+    <t>HFSALV-46380</t>
+  </si>
+  <si>
+    <t>0000000087</t>
+  </si>
+  <si>
+    <t>HFSALV-46382</t>
+  </si>
+  <si>
+    <t>0000104601</t>
+  </si>
+  <si>
+    <t>HFSALV-46384</t>
+  </si>
+  <si>
+    <t>VAGA690802CN2</t>
+  </si>
+  <si>
+    <t>0000134950</t>
+  </si>
+  <si>
+    <t>VALDEZ GODINEZ ANGEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46388</t>
+  </si>
+  <si>
+    <t>0000003968</t>
+  </si>
+  <si>
+    <t>HFSALV-46391</t>
+  </si>
+  <si>
+    <t>CMS010312DT3</t>
+  </si>
+  <si>
+    <t>0081016418</t>
+  </si>
+  <si>
+    <t>CAPI MOTORS S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>HFSALV-46392</t>
+  </si>
+  <si>
+    <t>LIGM980120HU7</t>
+  </si>
+  <si>
+    <t>LIERA GUTIERREZ MELANEA ITZEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46393</t>
+  </si>
+  <si>
+    <t>TEVR890904JR1</t>
+  </si>
+  <si>
+    <t>0000091646</t>
+  </si>
+  <si>
+    <t>TELLO VALTIERRA RODRIGO EMMANUEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46402</t>
+  </si>
+  <si>
+    <t>0000000120</t>
+  </si>
+  <si>
+    <t>HFSALV-46403</t>
+  </si>
+  <si>
+    <t>HEMC800628RA7</t>
+  </si>
+  <si>
+    <t>0000075370</t>
+  </si>
+  <si>
+    <t>HERNANDEZ MARTINEZ CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46404</t>
+  </si>
+  <si>
+    <t>0000065309</t>
+  </si>
+  <si>
+    <t>HFSALV-46406</t>
+  </si>
+  <si>
+    <t>OORM660531GNA</t>
+  </si>
+  <si>
+    <t>ORONA RODRIGUEZ MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>HFSALV-46407</t>
+  </si>
+  <si>
+    <t>0000115682</t>
+  </si>
+  <si>
+    <t>HFSALV-46408</t>
+  </si>
+  <si>
+    <t>SAJJ690117FU9</t>
+  </si>
+  <si>
+    <t>0000368454</t>
+  </si>
+  <si>
+    <t>SANCHEZ JIMENEZ JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>HFSALV-46409</t>
+  </si>
+  <si>
+    <t>AECJ500810H28</t>
+  </si>
+  <si>
+    <t>ACEVES CARRILLO JAVIER</t>
+  </si>
+  <si>
+    <t>HFSALV-46410</t>
+  </si>
+  <si>
+    <t>LABA770502GZ0</t>
+  </si>
+  <si>
+    <t>0000016632</t>
+  </si>
+  <si>
+    <t>LARA BAÑUELOS ALVARO</t>
+  </si>
+  <si>
+    <t>HFSALV-46412</t>
+  </si>
+  <si>
+    <t>0000005689</t>
+  </si>
+  <si>
+    <t>HFSALV-46417</t>
+  </si>
+  <si>
+    <t>HFSALV-46419</t>
+  </si>
+  <si>
+    <t>0000051817</t>
+  </si>
+  <si>
+    <t>HFSALV-46420</t>
+  </si>
+  <si>
+    <t>GVO070911Q50</t>
+  </si>
+  <si>
+    <t>0000008684</t>
+  </si>
+  <si>
+    <t>GRUPO VI OS COMERCIAL, S.A DE C.V.</t>
+  </si>
+  <si>
+    <t>HFSALV-46421</t>
+  </si>
+  <si>
+    <t>RIRF730525A73</t>
+  </si>
+  <si>
+    <t>RIVERO RIOS FELIPE</t>
+  </si>
+  <si>
+    <t>HFSALV-46422</t>
+  </si>
+  <si>
+    <t>0000008709</t>
+  </si>
+  <si>
+    <t>HFSALV-46423</t>
+  </si>
+  <si>
+    <t>HFSALV-46425</t>
+  </si>
+  <si>
+    <t>0000028076</t>
+  </si>
+  <si>
+    <t>HFSALV-46426</t>
+  </si>
+  <si>
+    <t>0000000431</t>
+  </si>
+  <si>
+    <t>HFSALV-46428</t>
+  </si>
+  <si>
+    <t>LOGR870824H64</t>
+  </si>
+  <si>
+    <t>0081094506</t>
+  </si>
+  <si>
+    <t>LOBATO GONZALEZ RAYMUNDO</t>
+  </si>
+  <si>
+    <t>HFSALV-46429</t>
+  </si>
+  <si>
+    <t>GURU690525RW6</t>
+  </si>
+  <si>
+    <t>0000129490</t>
+  </si>
+  <si>
+    <t>GUTIERREZ RUBIO URBANO</t>
+  </si>
+  <si>
+    <t>30/04/2020</t>
+  </si>
+  <si>
+    <t>HFSALV-46430</t>
+  </si>
+  <si>
+    <t>QUGG760820U93</t>
+  </si>
+  <si>
+    <t>0000196081</t>
+  </si>
+  <si>
+    <t>QUINTANAR GUZMAN GONZALO</t>
+  </si>
+  <si>
+    <t>HFSALV-46431</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +1019,7 @@
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,11 +1056,8 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>46231</v>
       </c>
@@ -656,11 +1094,8 @@
       <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46243</v>
       </c>
@@ -697,11 +1132,8 @@
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>46249</v>
       </c>
@@ -738,11 +1170,8 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46258</v>
       </c>
@@ -779,11 +1208,8 @@
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>46263</v>
       </c>
@@ -820,11 +1246,8 @@
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46267</v>
       </c>
@@ -861,11 +1284,8 @@
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>46270</v>
       </c>
@@ -902,11 +1322,8 @@
       <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>46272</v>
       </c>
@@ -943,11 +1360,8 @@
       <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46287</v>
       </c>
@@ -984,11 +1398,8 @@
       <c r="L10" t="s">
         <v>19</v>
       </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>46293</v>
       </c>
@@ -1025,216 +1436,2134 @@
       <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>46294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20190000216132</v>
+      </c>
+      <c r="F12">
+        <v>8100101613</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>46000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>46296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20170000263870</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>61200</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>46301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20200000016515</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>23680</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>46305</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20190000181527</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>35699</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>46314</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20200000014713</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>55555</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>46316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20190000281938</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>130900</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>46319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20200000012801</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>51200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>46333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20190000162642</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>37911</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>46340</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20190000217617</v>
+      </c>
+      <c r="F20">
+        <v>1001014394</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>52000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>46348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20190000253050</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>21911</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46350</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20190000275661</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>185185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>46353</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20190000243898</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>149000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>46355</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20200000010874</v>
+      </c>
+      <c r="F24">
+        <v>1001016762</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>25000</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>46362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20200000043650</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>1220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>46363</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20190000083455</v>
+      </c>
+      <c r="F26">
+        <v>8100129473</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>8000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>46364</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20190000054124</v>
+      </c>
+      <c r="F27">
+        <v>2002014615</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>109000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>46364</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20190000054124</v>
+      </c>
+      <c r="F28">
+        <v>2002014615</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>109000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20190000270030</v>
+      </c>
+      <c r="F29">
+        <v>1004013656</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>53000.01</v>
+      </c>
+      <c r="K29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46367</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20200000037241</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>51700.01</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46368</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20200000033524</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>48235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>46369</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20200000041396</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>12000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>46372</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20200000055848</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>111700</v>
+      </c>
+      <c r="K33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>46373</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20190000006694</v>
+      </c>
+      <c r="F34">
+        <v>3640</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>51000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>46373</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20190000006694</v>
+      </c>
+      <c r="F35">
+        <v>3640</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>51000</v>
+      </c>
+      <c r="K35" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>46373</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20190000006694</v>
+      </c>
+      <c r="F36">
+        <v>3640</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>51000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>46375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20190000001247</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>25000</v>
+      </c>
+      <c r="K37" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>46376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20190000000618</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>30000</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>46379</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20200000029801</v>
+      </c>
+      <c r="F39">
+        <v>2003005838</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>10000</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>46380</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20200000029717</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>12000</v>
+      </c>
+      <c r="K40" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>46382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20200000047021</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>121700</v>
+      </c>
+      <c r="K41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>46384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20200000025807</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>93000</v>
+      </c>
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>46388</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20180000268340</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>26799</v>
+      </c>
+      <c r="K43" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>46391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20200000000168</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>88000</v>
+      </c>
+      <c r="K44" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>46392</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20190000168650</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>110000</v>
+      </c>
+      <c r="K45" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46393</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20180000292814</v>
+      </c>
+      <c r="F46">
+        <v>2002011799</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>36130</v>
+      </c>
+      <c r="K46" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46402</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20180000001530</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>105210</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46403</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20190000253195</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>58700</v>
+      </c>
+      <c r="K48" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46404</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20190000279165</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>20224</v>
+      </c>
+      <c r="K49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46406</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20190000240285</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>65200</v>
+      </c>
+      <c r="K50" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46407</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20190000252250</v>
+      </c>
+      <c r="F51">
+        <v>8100165463</v>
+      </c>
+      <c r="G51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>60000</v>
+      </c>
+      <c r="K51" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46408</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20200000014258</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>25000</v>
+      </c>
+      <c r="K52" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>46409</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20200000035605</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>78999</v>
+      </c>
+      <c r="K53" t="s">
+        <v>164</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>46410</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20200000020183</v>
+      </c>
+      <c r="F54">
+        <v>8100102135</v>
+      </c>
+      <c r="G54" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>22600</v>
+      </c>
+      <c r="K54" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>46412</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20190000252264</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>2000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>171</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>46417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20190000277975</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>25777</v>
+      </c>
+      <c r="K56" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>46419</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20200000024331</v>
+      </c>
+      <c r="F57">
+        <v>1101000059</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>64700</v>
+      </c>
+      <c r="K57" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>46420</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20190000268304</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>5130</v>
+      </c>
+      <c r="K58" t="s">
+        <v>176</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>46421</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20190000191896</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>3500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>180</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>46422</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20190000248101</v>
+      </c>
+      <c r="F60">
+        <v>2001000018</v>
+      </c>
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>2000</v>
+      </c>
+      <c r="K60" t="s">
+        <v>183</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>46423</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20190000191890</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>2000</v>
+      </c>
+      <c r="K61" t="s">
+        <v>185</v>
+      </c>
+      <c r="L61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>46425</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20200000014276</v>
+      </c>
+      <c r="F62">
+        <v>1002017116</v>
+      </c>
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>41700</v>
+      </c>
+      <c r="K62" t="s">
+        <v>186</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>46426</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2">
+        <v>20200000017349</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>331700</v>
+      </c>
+      <c r="K63" t="s">
+        <v>188</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>46428</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2">
+        <v>20200000035506</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>226699.99</v>
+      </c>
+      <c r="K64" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>46429</v>
+      </c>
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2">
+        <v>20180000281438</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>180444</v>
+      </c>
+      <c r="K65" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>46430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2">
+        <v>20190000260236</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" t="s">
+        <v>198</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>390000</v>
+      </c>
+      <c r="K66" t="s">
+        <v>199</v>
+      </c>
+      <c r="L66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>46431</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="2">
+        <v>20190000204698</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" t="s">
+        <v>202</v>
+      </c>
+      <c r="H67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>75000</v>
+      </c>
+      <c r="K67" t="s">
+        <v>203</v>
+      </c>
+      <c r="L67" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
